--- a/ig/correctionKereval/StructureDefinition-ror-organization-drop-zone.xlsx
+++ b/ig/correctionKereval/StructureDefinition-ror-organization-drop-zone.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T10:31:47+00:00</t>
+    <t>2023-04-11T10:34:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
